--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13c.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tnfsf13b</t>
+  </si>
+  <si>
+    <t>Tnfrsf13c</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tnfsf13b</t>
-  </si>
-  <si>
-    <t>Tnfrsf13c</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,75 +522,75 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.429365</v>
+        <v>1.643401666666666</v>
       </c>
       <c r="H2">
-        <v>4.288094999999999</v>
+        <v>4.930204999999999</v>
       </c>
       <c r="I2">
-        <v>0.3278441551491149</v>
+        <v>0.6433537405875911</v>
       </c>
       <c r="J2">
-        <v>0.3278441551491149</v>
+        <v>0.6433537405875911</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.8326880000000001</v>
+        <v>0.3064233333333333</v>
       </c>
       <c r="N2">
-        <v>2.498064</v>
+        <v>0.91927</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.303622416540745</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.303622416540745</v>
       </c>
       <c r="Q2">
-        <v>1.19021508312</v>
+        <v>0.5035766167055554</v>
       </c>
       <c r="R2">
-        <v>10.71193574808</v>
+        <v>4.532189550349999</v>
       </c>
       <c r="S2">
-        <v>0.3278441551491149</v>
+        <v>0.1953366174077319</v>
       </c>
       <c r="T2">
-        <v>0.3278441551491149</v>
+        <v>0.1953366174077319</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.643401666666667</v>
+        <v>1.643401666666666</v>
       </c>
       <c r="H3">
-        <v>4.930205</v>
+        <v>4.930204999999999</v>
       </c>
       <c r="I3">
-        <v>0.3769363535408946</v>
+        <v>0.6433537405875911</v>
       </c>
       <c r="J3">
-        <v>0.3769363535408946</v>
+        <v>0.6433537405875911</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,42 +617,42 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8326880000000001</v>
+        <v>0.7028016666666667</v>
       </c>
       <c r="N3">
-        <v>2.498064</v>
+        <v>2.108405</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.696377583459255</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.696377583459255</v>
       </c>
       <c r="Q3">
-        <v>1.368440847013334</v>
+        <v>1.154985430336111</v>
       </c>
       <c r="R3">
-        <v>12.31596762312</v>
+        <v>10.394868873025</v>
       </c>
       <c r="S3">
-        <v>0.3769363535408946</v>
+        <v>0.4480171231798591</v>
       </c>
       <c r="T3">
-        <v>0.3769363535408946</v>
+        <v>0.4480171231798591</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,78 +661,78 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03065933333333333</v>
+        <v>0.08257399999999999</v>
       </c>
       <c r="H4">
-        <v>0.091978</v>
+        <v>0.247722</v>
       </c>
       <c r="I4">
-        <v>0.00703213191459268</v>
+        <v>0.03232581106177922</v>
       </c>
       <c r="J4">
-        <v>0.007032131914592681</v>
+        <v>0.03232581106177923</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.8326880000000001</v>
+        <v>0.3064233333333333</v>
       </c>
       <c r="N4">
-        <v>2.498064</v>
+        <v>0.91927</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.303622416540745</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.303622416540745</v>
       </c>
       <c r="Q4">
-        <v>0.02552965895466667</v>
+        <v>0.02530260032666666</v>
       </c>
       <c r="R4">
-        <v>0.229766930592</v>
+        <v>0.22772340294</v>
       </c>
       <c r="S4">
-        <v>0.00703213191459268</v>
+        <v>0.009814840871216953</v>
       </c>
       <c r="T4">
-        <v>0.007032131914592681</v>
+        <v>0.009814840871216955</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.256465666666666</v>
+        <v>0.08257399999999999</v>
       </c>
       <c r="H5">
-        <v>3.769397</v>
+        <v>0.247722</v>
       </c>
       <c r="I5">
-        <v>0.2881873593953978</v>
+        <v>0.03232581106177922</v>
       </c>
       <c r="J5">
-        <v>0.2881873593953979</v>
+        <v>0.03232581106177923</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,152 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8326880000000001</v>
+        <v>0.7028016666666667</v>
       </c>
       <c r="N5">
-        <v>2.498064</v>
+        <v>2.108405</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.696377583459255</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.696377583459255</v>
       </c>
       <c r="Q5">
-        <v>1.046243883045333</v>
+        <v>0.05803314482333333</v>
       </c>
       <c r="R5">
-        <v>9.416194947408</v>
+        <v>0.5222983034099999</v>
       </c>
       <c r="S5">
-        <v>0.2881873593953978</v>
+        <v>0.02251097019056227</v>
       </c>
       <c r="T5">
-        <v>0.2881873593953979</v>
+        <v>0.02251097019056228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.8284536666666668</v>
+      </c>
+      <c r="H6">
+        <v>2.485361</v>
+      </c>
+      <c r="I6">
+        <v>0.3243204483506297</v>
+      </c>
+      <c r="J6">
+        <v>0.3243204483506297</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.3064233333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.91927</v>
+      </c>
+      <c r="O6">
+        <v>0.303622416540745</v>
+      </c>
+      <c r="P6">
+        <v>0.303622416540745</v>
+      </c>
+      <c r="Q6">
+        <v>0.2538575340522222</v>
+      </c>
+      <c r="R6">
+        <v>2.28471780647</v>
+      </c>
+      <c r="S6">
+        <v>0.09847095826179604</v>
+      </c>
+      <c r="T6">
+        <v>0.09847095826179605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.8284536666666668</v>
+      </c>
+      <c r="H7">
+        <v>2.485361</v>
+      </c>
+      <c r="I7">
+        <v>0.3243204483506297</v>
+      </c>
+      <c r="J7">
+        <v>0.3243204483506297</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7028016666666667</v>
+      </c>
+      <c r="N7">
+        <v>2.108405</v>
+      </c>
+      <c r="O7">
+        <v>0.696377583459255</v>
+      </c>
+      <c r="P7">
+        <v>0.696377583459255</v>
+      </c>
+      <c r="Q7">
+        <v>0.5822386176894445</v>
+      </c>
+      <c r="R7">
+        <v>5.240147559205</v>
+      </c>
+      <c r="S7">
+        <v>0.2258494900888336</v>
+      </c>
+      <c r="T7">
+        <v>0.2258494900888337</v>
       </c>
     </row>
   </sheetData>
